--- a/Data/LineData.xlsx
+++ b/Data/LineData.xlsx
@@ -6107,8 +6107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="D470" sqref="D470"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12397,6 +12397,7 @@
       <c r="C265">
         <v>51.527275500000002</v>
       </c>
+      <c r="D265" s="6"/>
       <c r="I265">
         <v>110</v>
       </c>
@@ -14692,10 +14693,10 @@
         <v>448</v>
       </c>
       <c r="B470">
-        <v>-0.19470000000000001</v>
+        <v>-0.122</v>
       </c>
       <c r="C470">
-        <v>51.491300000000003</v>
+        <v>51.506999999999998</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">

--- a/Data/LineData.xlsx
+++ b/Data/LineData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="8640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="8640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Bakerloo" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="540">
   <si>
     <t xml:space="preserve">Blackhorse Road Underground Station </t>
   </si>
@@ -85,36 +85,6 @@
     <t>Lat</t>
   </si>
   <si>
-    <t>PiccDistS1</t>
-  </si>
-  <si>
-    <t>PiccDistS2</t>
-  </si>
-  <si>
-    <t>PiccDistS3</t>
-  </si>
-  <si>
-    <t>PiccDistS4</t>
-  </si>
-  <si>
-    <t>PiccDistS5</t>
-  </si>
-  <si>
-    <t>PiccDistS6</t>
-  </si>
-  <si>
-    <t>PiccDistS7</t>
-  </si>
-  <si>
-    <t>PiccDistS8</t>
-  </si>
-  <si>
-    <t>PiccDistS9</t>
-  </si>
-  <si>
-    <t>PiccDistSA</t>
-  </si>
-  <si>
     <t>Piccadilly</t>
   </si>
   <si>
@@ -127,15 +97,6 @@
     <t>PiccDistCirc3</t>
   </si>
   <si>
-    <t>PiccDistN1</t>
-  </si>
-  <si>
-    <t>PiccDistN2</t>
-  </si>
-  <si>
-    <t>DistEaling</t>
-  </si>
-  <si>
     <t>PiccMet1</t>
   </si>
   <si>
@@ -157,42 +118,6 @@
     <t>PiccMet7</t>
   </si>
   <si>
-    <t>DistRichmond1</t>
-  </si>
-  <si>
-    <t>DistRichmond2</t>
-  </si>
-  <si>
-    <t>DistRichmond3</t>
-  </si>
-  <si>
-    <t>DistRichChord</t>
-  </si>
-  <si>
-    <t>DistWimbledonA</t>
-  </si>
-  <si>
-    <t>DistWimbledonB1</t>
-  </si>
-  <si>
-    <t>DistWimbledonB2</t>
-  </si>
-  <si>
-    <t>DistWimbledonB3</t>
-  </si>
-  <si>
-    <t>DistWimbledonB4</t>
-  </si>
-  <si>
-    <t>DistWimbledonB5</t>
-  </si>
-  <si>
-    <t>DistWimbledonB6</t>
-  </si>
-  <si>
-    <t>DistWimbledonB7</t>
-  </si>
-  <si>
     <t>DCKens1</t>
   </si>
   <si>
@@ -211,9 +136,6 @@
     <t>3LineEdgware</t>
   </si>
   <si>
-    <t>DistEdgware</t>
-  </si>
-  <si>
     <t>CircleWest</t>
   </si>
   <si>
@@ -286,33 +208,6 @@
     <t>DistHamEast11</t>
   </si>
   <si>
-    <t>DistAldgate12</t>
-  </si>
-  <si>
-    <t>DistrictEast1</t>
-  </si>
-  <si>
-    <t>DistrictEast2</t>
-  </si>
-  <si>
-    <t>DistrictEast3</t>
-  </si>
-  <si>
-    <t>DistrictEast4</t>
-  </si>
-  <si>
-    <t>DistrictEast5</t>
-  </si>
-  <si>
-    <t>DistrictEast6</t>
-  </si>
-  <si>
-    <t>DistrictEast7</t>
-  </si>
-  <si>
-    <t>DistrictEast8</t>
-  </si>
-  <si>
     <t>HamAldgate</t>
   </si>
   <si>
@@ -940,15 +835,6 @@
     <t>LeaValleyLineAC</t>
   </si>
   <si>
-    <t>PiccDistSAB</t>
-  </si>
-  <si>
-    <t>PiccDistSAC</t>
-  </si>
-  <si>
-    <t>PiccDistSAD</t>
-  </si>
-  <si>
     <t>MetMainAB</t>
   </si>
   <si>
@@ -1166,9 +1052,6 @@
   </si>
   <si>
     <t>MetCroxleyExtension</t>
-  </si>
-  <si>
-    <t>District</t>
   </si>
   <si>
     <t>Met</t>
@@ -2142,18 +2025,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="B1" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="B2">
         <v>-0.33489600000000003</v>
@@ -2307,7 +2190,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="B16">
         <v>-0.31694600000000001</v>
@@ -2494,7 +2377,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="B33">
         <v>-0.308448</v>
@@ -2604,7 +2487,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="B43">
         <v>-0.30399199999999998</v>
@@ -2758,7 +2641,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="B57">
         <v>-0.29664200000000002</v>
@@ -3275,7 +3158,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="B104">
         <v>-0.27585900000000002</v>
@@ -3594,7 +3477,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="B133">
         <v>-0.257774</v>
@@ -3902,7 +3785,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="B161">
         <v>-0.243006</v>
@@ -4309,7 +4192,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="B198">
         <v>-0.22505</v>
@@ -4540,7 +4423,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="B219">
         <v>-0.20488200000000001</v>
@@ -4661,7 +4544,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="B230">
         <v>-0.19423199999999999</v>
@@ -4738,7 +4621,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="B237">
         <v>-0.18575800000000001</v>
@@ -4848,7 +4731,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="B247">
         <v>-0.183783</v>
@@ -4969,7 +4852,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="B258">
         <v>-0.17616000000000001</v>
@@ -5211,7 +5094,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="B280">
         <v>-0.17015</v>
@@ -5222,7 +5105,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="B281">
         <v>-0.16301299999999999</v>
@@ -5233,7 +5116,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="B282">
         <v>-0.15712999999999999</v>
@@ -5365,7 +5248,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="B294">
         <v>-0.14644399999999999</v>
@@ -5519,7 +5402,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="B308">
         <v>-0.141903</v>
@@ -5673,7 +5556,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B322">
         <v>-0.133798</v>
@@ -5849,7 +5732,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="B338">
         <v>-0.126137</v>
@@ -5860,7 +5743,7 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="B339">
         <v>-0.12142799999999999</v>
@@ -5871,7 +5754,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="B340">
         <v>-0.113356</v>
@@ -5974,7 +5857,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="B349">
         <v>-0.112315</v>
@@ -6084,7 +5967,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="B359">
         <v>-9.9184999999999995E-2</v>
@@ -6107,48 +5990,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K843"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="8.88671875" style="7"/>
-    <col min="23" max="23" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="B1" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="I1" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="J1" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="K1" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="B2">
         <v>0.25085499999999999</v>
@@ -6157,7 +6040,7 @@
         <v>51.558658999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="F2">
         <v>-0.30144799999999999</v>
@@ -6166,7 +6049,7 @@
         <v>51.463152000000001</v>
       </c>
       <c r="I2" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
       <c r="J2">
         <v>-0.20644399999999999</v>
@@ -7036,7 +6919,7 @@
         <v>51.466239999999999</v>
       </c>
       <c r="I32" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="J32">
         <v>-0.19971900000000001</v>
@@ -7076,7 +6959,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="B34">
         <v>0.23580899999999999</v>
@@ -7569,7 +7452,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="B51">
         <v>0.21911600000000001</v>
@@ -7587,7 +7470,7 @@
         <v>51.477058831014801</v>
       </c>
       <c r="I51" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="J51">
         <v>-0.20660200000000001</v>
@@ -7607,7 +7490,7 @@
         <v>51.554000887522101</v>
       </c>
       <c r="E52" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="F52">
         <v>-0.28514800000000001</v>
@@ -8004,7 +7887,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="B66">
         <v>0.19864000000000001</v>
@@ -8341,7 +8224,7 @@
         <v>51.489986799999997</v>
       </c>
       <c r="I77" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="J77">
         <v>-0.21099999999999999</v>
@@ -8468,7 +8351,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="B82">
         <v>0.166017</v>
@@ -8680,7 +8563,7 @@
         <v>51.543110200000001</v>
       </c>
       <c r="E89" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="F89">
         <v>-0.27527600000000002</v>
@@ -8912,7 +8795,7 @@
         <v>51.541900099999999</v>
       </c>
       <c r="E97" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
       <c r="F97">
         <v>-0.25455499999999998</v>
@@ -9037,7 +8920,7 @@
         <v>51.493201999999997</v>
       </c>
       <c r="I101" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="J101">
         <v>-0.208731</v>
@@ -9077,7 +8960,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B103">
         <v>0.14752699999999999</v>
@@ -9409,7 +9292,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="B116">
         <v>0.12701599999999999</v>
@@ -9598,7 +9481,7 @@
         <v>51.538741700000003</v>
       </c>
       <c r="I125" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="J125">
         <v>-0.20116999999999999</v>
@@ -9729,7 +9612,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="B132">
         <v>0.10153</v>
@@ -9858,7 +9741,7 @@
         <v>51.537916299999999</v>
       </c>
       <c r="I138" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="J138">
         <v>-0.19542200000000001</v>
@@ -10098,7 +9981,7 @@
         <v>51.537682199999999</v>
       </c>
       <c r="I150" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="J150">
         <v>-0.19559299999999999</v>
@@ -10121,10 +10004,10 @@
         <v>98</v>
       </c>
       <c r="J151">
-        <v>-0.19519020000000001</v>
+        <v>-0.19550257676131499</v>
       </c>
       <c r="K151">
-        <v>51.490802500000001</v>
+        <v>51.487043057652002</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -10141,10 +10024,10 @@
         <v>98</v>
       </c>
       <c r="J152">
-        <v>-0.19607160000000001</v>
+        <v>-0.19589948863887399</v>
       </c>
       <c r="K152">
-        <v>51.490007499999997</v>
+        <v>51.487393922730803</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -10161,10 +10044,10 @@
         <v>98</v>
       </c>
       <c r="J153">
-        <v>-0.19622890000000001</v>
+        <v>-0.19607530000000001</v>
       </c>
       <c r="K153">
-        <v>51.489742100000001</v>
+        <v>51.487677400000003</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -10181,10 +10064,10 @@
         <v>98</v>
       </c>
       <c r="J154">
-        <v>-0.19634160000000001</v>
+        <v>-0.19619439999999999</v>
       </c>
       <c r="K154">
-        <v>51.489506200000001</v>
+        <v>51.487868200000001</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -10201,10 +10084,10 @@
         <v>98</v>
       </c>
       <c r="J155">
-        <v>-0.1964205</v>
+        <v>-0.19629089999999999</v>
       </c>
       <c r="K155">
-        <v>51.489192199999998</v>
+        <v>51.4880493</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -10221,10 +10104,10 @@
         <v>98</v>
       </c>
       <c r="J156">
-        <v>-0.19644719999999999</v>
+        <v>-0.19635569999999999</v>
       </c>
       <c r="K156">
-        <v>51.488947500000002</v>
+        <v>51.488236200000003</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -10241,10 +10124,10 @@
         <v>98</v>
       </c>
       <c r="J157">
-        <v>-0.196436</v>
+        <v>-0.19641339999999999</v>
       </c>
       <c r="K157">
-        <v>51.488731700000002</v>
+        <v>51.488473900000002</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -10261,10 +10144,10 @@
         <v>98</v>
       </c>
       <c r="J158">
-        <v>-0.19641339999999999</v>
+        <v>-0.196436</v>
       </c>
       <c r="K158">
-        <v>51.488473900000002</v>
+        <v>51.488731700000002</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -10281,10 +10164,10 @@
         <v>98</v>
       </c>
       <c r="J159">
-        <v>-0.19635569999999999</v>
+        <v>-0.19644719999999999</v>
       </c>
       <c r="K159">
-        <v>51.488236200000003</v>
+        <v>51.488947500000002</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -10301,10 +10184,10 @@
         <v>98</v>
       </c>
       <c r="J160">
-        <v>-0.19629089999999999</v>
+        <v>-0.1964205</v>
       </c>
       <c r="K160">
-        <v>51.4880493</v>
+        <v>51.489192199999998</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -10321,10 +10204,10 @@
         <v>98</v>
       </c>
       <c r="J161">
-        <v>-0.19619439999999999</v>
+        <v>-0.19634160000000001</v>
       </c>
       <c r="K161">
-        <v>51.487868200000001</v>
+        <v>51.489506200000001</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -10341,10 +10224,10 @@
         <v>98</v>
       </c>
       <c r="J162">
-        <v>-0.19607530000000001</v>
+        <v>-0.19622890000000001</v>
       </c>
       <c r="K162">
-        <v>51.487677400000003</v>
+        <v>51.489742100000001</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -10361,10 +10244,10 @@
         <v>98</v>
       </c>
       <c r="J163">
-        <v>-0.19589948863887399</v>
+        <v>-0.19607160000000001</v>
       </c>
       <c r="K163">
-        <v>51.487393922730803</v>
+        <v>51.490007499999997</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -10381,10 +10264,10 @@
         <v>98</v>
       </c>
       <c r="J164">
-        <v>-0.19550257676131499</v>
+        <v>-0.19519020000000001</v>
       </c>
       <c r="K164">
-        <v>51.487043057652002</v>
+        <v>51.490802500000001</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -10398,7 +10281,7 @@
         <v>51.539505855769498</v>
       </c>
       <c r="I165" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="J165">
         <v>-0.19337799999999999</v>
@@ -10409,7 +10292,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="B166">
         <v>8.0988000000000004E-2</v>
@@ -10858,7 +10741,7 @@
         <v>51.541706400000002</v>
       </c>
       <c r="I188" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="J188">
         <v>-0.19279199999999999</v>
@@ -11149,7 +11032,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="B203">
         <v>5.1186000000000002E-2</v>
@@ -11238,7 +11121,7 @@
         <v>51.538780799999998</v>
       </c>
       <c r="I207" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="J207">
         <v>-0.196104</v>
@@ -11589,7 +11472,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="B225">
         <v>3.5263000000000003E-2</v>
@@ -11778,7 +11661,7 @@
         <v>51.533027300000001</v>
       </c>
       <c r="I234" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="J234">
         <v>-0.18793799999999999</v>
@@ -11909,7 +11792,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="B241">
         <v>1.7451000000000001E-2</v>
@@ -12229,7 +12112,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="B257">
         <v>4.9969999999999997E-3</v>
@@ -12258,7 +12141,7 @@
         <v>51.5283306667611</v>
       </c>
       <c r="I258" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="J258">
         <v>-0.17616000000000001</v>
@@ -12479,7 +12362,7 @@
         <v>51.5258416</v>
       </c>
       <c r="I269" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="J269">
         <v>-0.16777800000000001</v>
@@ -12600,7 +12483,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="B280">
         <v>-1.1538E-2</v>
@@ -12886,7 +12769,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="B306">
         <v>-2.5128000000000001E-2</v>
@@ -12974,7 +12857,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="B314">
         <v>-3.3640000000000003E-2</v>
@@ -13095,7 +12978,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="B325">
         <v>-4.6595999999999999E-2</v>
@@ -13293,7 +13176,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="B343">
         <v>-5.9858000000000001E-2</v>
@@ -13458,7 +13341,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="B358">
         <v>-7.2384000000000004E-2</v>
@@ -13634,7 +13517,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="B374">
         <v>-7.6546000000000003E-2</v>
@@ -13898,7 +13781,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="B398">
         <v>-8.5969000000000004E-2</v>
@@ -14052,7 +13935,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="B412">
         <v>-9.0357000000000007E-2</v>
@@ -14140,7 +14023,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="B420">
         <v>-9.4008999999999995E-2</v>
@@ -14316,7 +14199,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="B436">
         <v>-0.10416599999999999</v>
@@ -14492,7 +14375,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="B452">
         <v>-0.11426</v>
@@ -14690,7 +14573,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="B470">
         <v>-0.122</v>
@@ -14844,7 +14727,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="B484">
         <v>-0.12598400000000001</v>
@@ -14998,7 +14881,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
       <c r="B498">
         <v>-0.133608</v>
@@ -15779,7 +15662,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="B569">
         <v>-0.15637699999999999</v>
@@ -15933,7 +15816,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>560</v>
+        <v>521</v>
       </c>
       <c r="B583">
         <v>-0.17413799999999999</v>
@@ -16087,7 +15970,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B597">
         <v>-0.18265799999999999</v>
@@ -16285,7 +16168,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="B615">
         <v>-0.19470000000000001</v>
@@ -16318,7 +16201,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="B618">
         <v>-0.20663599999999999</v>
@@ -16461,7 +16344,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="B631">
         <v>-0.21342700000000001</v>
@@ -16736,7 +16619,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="B656">
         <v>-0.22439999999999999</v>
@@ -17088,7 +16971,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="B688">
         <v>-0.23588100000000001</v>
@@ -17330,7 +17213,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="B710">
         <v>-0.24570400000000001</v>
@@ -17484,7 +17367,7 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
       <c r="B724">
         <v>-0.25455499999999998</v>
@@ -17704,7 +17587,7 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="B744">
         <v>-0.26797199999999999</v>
@@ -18089,7 +17972,7 @@
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="B779">
         <v>-0.28046199999999999</v>
@@ -18441,7 +18324,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="B811">
         <v>-0.28826499999999999</v>
@@ -18793,7 +18676,7 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="B843">
         <v>-0.30213099999999998</v>
@@ -18803,6 +18686,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="O151:S164">
+    <sortCondition descending="1" ref="O151:O164"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
@@ -18824,36 +18710,36 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="B1" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="F1" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="G1" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="I1" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
       <c r="J1" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="K1" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="B2">
         <v>-0.27492800000000001</v>
@@ -18862,7 +18748,7 @@
         <v>51.613652999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="F2">
         <v>-0.194298</v>
@@ -18871,7 +18757,7 @@
         <v>51.650540999999997</v>
       </c>
       <c r="I2" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="J2">
         <v>-0.20998600000000001</v>
@@ -18900,7 +18786,7 @@
         <v>51.6504841</v>
       </c>
       <c r="I3" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="J3">
         <v>-0.192527</v>
@@ -19340,7 +19226,7 @@
         <v>51.604259499999998</v>
       </c>
       <c r="E25" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="F25">
         <v>-0.17921000000000001</v>
@@ -19431,7 +19317,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="B30">
         <v>-0.264048</v>
@@ -19600,7 +19486,7 @@
         <v>51.6002717</v>
       </c>
       <c r="E38" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="F38">
         <v>-0.18542</v>
@@ -19720,7 +19606,7 @@
         <v>51.5991882</v>
       </c>
       <c r="E44" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="F44">
         <v>-0.188362</v>
@@ -19951,7 +19837,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="B56">
         <v>-0.249919</v>
@@ -20491,7 +20377,7 @@
         <v>51.584111900000003</v>
       </c>
       <c r="E83" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="F83">
         <v>-0.16501199999999999</v>
@@ -20522,7 +20408,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="B85">
         <v>-0.22642399999999999</v>
@@ -20711,7 +20597,7 @@
         <v>51.5803808</v>
       </c>
       <c r="E94" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="F94">
         <v>-0.14585699999999999</v>
@@ -20962,7 +20848,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="B107">
         <v>-0.21362200000000001</v>
@@ -20991,7 +20877,7 @@
         <v>51.576280699999998</v>
       </c>
       <c r="E108" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="F108">
         <v>-0.13481899999999999</v>
@@ -21171,7 +21057,7 @@
         <v>51.574111100000003</v>
       </c>
       <c r="E117" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="F117">
         <v>-0.138433</v>
@@ -21411,7 +21297,7 @@
         <v>51.573082100000001</v>
       </c>
       <c r="E129" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="F129">
         <v>-0.140545</v>
@@ -21931,7 +21817,7 @@
         <v>51.5731854</v>
       </c>
       <c r="E155" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="F155">
         <v>-0.14274000000000001</v>
@@ -22022,7 +21908,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="B160">
         <v>-0.19403899999999999</v>
@@ -22091,7 +21977,7 @@
         <v>51.5718508</v>
       </c>
       <c r="E163" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="F163">
         <v>-0.138789</v>
@@ -22571,7 +22457,7 @@
         <v>51.563977700000002</v>
       </c>
       <c r="E187" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="F187">
         <v>-0.13436100000000001</v>
@@ -22651,7 +22537,7 @@
         <v>51.5601883</v>
       </c>
       <c r="E191" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="F191">
         <v>-0.13041</v>
@@ -22842,7 +22728,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="B201">
         <v>-0.17829999999999999</v>
@@ -22911,7 +22797,7 @@
         <v>51.555427899999998</v>
       </c>
       <c r="E204" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="F204">
         <v>-0.12842600000000001</v>
@@ -23011,7 +22897,7 @@
         <v>51.553005300000002</v>
       </c>
       <c r="E209" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="F209">
         <v>-0.126137</v>
@@ -23040,7 +22926,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="B211">
         <v>-0.16464799999999999</v>
@@ -23049,7 +22935,7 @@
         <v>51.550311000000001</v>
       </c>
       <c r="E211" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="F211">
         <v>-0.113356</v>
@@ -23240,7 +23126,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="B221">
         <v>-0.153388</v>
@@ -23309,7 +23195,7 @@
         <v>51.542941399999997</v>
       </c>
       <c r="E224" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F224">
         <v>-0.105963</v>
@@ -23419,7 +23305,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="B234">
         <v>-0.14274000000000001</v>
@@ -23474,7 +23360,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="B239">
         <v>-0.138789</v>
@@ -23955,7 +23841,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="B283">
         <v>-0.105992</v>
@@ -24076,7 +23962,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="B294">
         <v>-8.8192999999999994E-2</v>
@@ -24208,7 +24094,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="B306">
         <v>-8.8626999999999997E-2</v>
@@ -24340,7 +24226,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="B318">
         <v>-8.9094999999999994E-2</v>
@@ -24637,7 +24523,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="B345">
         <v>-8.6806999999999995E-2</v>
@@ -24769,7 +24655,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="B357">
         <v>-9.3369999999999995E-2</v>
@@ -24934,7 +24820,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="B372">
         <v>-9.9184999999999995E-2</v>
@@ -25110,7 +24996,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="B388">
         <v>-0.105963</v>
@@ -25209,7 +25095,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="B397">
         <v>-0.112439</v>
@@ -25407,7 +25293,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="B415">
         <v>-0.13001599999999999</v>
@@ -25495,7 +25381,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B423">
         <v>-0.138317</v>
@@ -25649,7 +25535,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="B437">
         <v>-0.14758199999999999</v>
@@ -25803,7 +25689,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="B451">
         <v>-0.15270700000000001</v>
@@ -25902,7 +25788,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="B460">
         <v>-0.15973599999999999</v>
@@ -26012,7 +25898,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="B470">
         <v>-0.168374</v>
@@ -26133,7 +26019,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="B481">
         <v>-0.17808599999999999</v>
@@ -26287,7 +26173,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="B495">
         <v>-0.19200500000000001</v>
@@ -26529,7 +26415,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="B517">
         <v>-0.19483900000000001</v>
@@ -26560,36 +26446,36 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="E1" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="F1" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="G1" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="I1" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="J1" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="K1" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="B2">
         <v>-0.28046199999999999</v>
@@ -26598,7 +26484,7 @@
         <v>51.503056999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="F2">
         <v>-0.47794900000000001</v>
@@ -26607,7 +26493,7 @@
         <v>51.546565000000001</v>
       </c>
       <c r="I2" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="J2">
         <v>-0.42319099999999998</v>
@@ -27464,7 +27350,7 @@
         <v>51.495065500000003</v>
       </c>
       <c r="E45" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="F45">
         <v>-0.44982800000000001</v>
@@ -27573,7 +27459,7 @@
         <v>51.555095700000003</v>
       </c>
       <c r="I50" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="J50">
         <v>-0.4526694</v>
@@ -27604,7 +27490,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="B52">
         <v>-0.25455499999999998</v>
@@ -28033,7 +27919,7 @@
         <v>51.494908299999999</v>
       </c>
       <c r="E73" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="F73">
         <v>-0.44200099999999998</v>
@@ -28102,7 +27988,7 @@
         <v>51.563019599999997</v>
       </c>
       <c r="I76" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="J76">
         <v>-0.4223287</v>
@@ -28665,7 +28551,7 @@
         <v>51.570697099999997</v>
       </c>
       <c r="I104" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="J104">
         <v>-0.38562479999999999</v>
@@ -28742,7 +28628,7 @@
         <v>51.493609300000003</v>
       </c>
       <c r="E108" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="J108">
         <v>-0.38259219999999999</v>
@@ -28833,7 +28719,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="B113">
         <v>-0.223345022074079</v>
@@ -28942,7 +28828,7 @@
         <v>51.490535399999999</v>
       </c>
       <c r="E118" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="F118">
         <v>-0.41297299999999998</v>
@@ -29165,7 +29051,7 @@
         <v>51.490228999999999</v>
       </c>
       <c r="E129" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="F129">
         <v>-0.39737299999999998</v>
@@ -29242,7 +29128,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="B133">
         <v>-0.21376861900494701</v>
@@ -29425,7 +29311,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="B142">
         <v>-0.19337799999999999</v>
@@ -29460,7 +29346,7 @@
         <v>51.577232500000001</v>
       </c>
       <c r="I143" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="J143">
         <v>-0.36501030000000001</v>
@@ -29651,7 +29537,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="B153">
         <v>-0.18265799999999999</v>
@@ -29674,7 +29560,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="B154">
         <v>-0.17413799999999999</v>
@@ -29869,7 +29755,7 @@
         <v>51.575746199999998</v>
       </c>
       <c r="I163" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="J163">
         <v>-0.35540149999999998</v>
@@ -29966,7 +29852,7 @@
         <v>51.495031599999997</v>
       </c>
       <c r="E168" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="F168">
         <v>-0.37112699999999998</v>
@@ -30215,7 +30101,7 @@
         <v>51.573500199999998</v>
       </c>
       <c r="I180" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="J180">
         <v>-0.35015279999999999</v>
@@ -30546,7 +30432,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="B197">
         <v>-0.16050800000000001</v>
@@ -30661,7 +30547,7 @@
         <v>51.567943</v>
       </c>
       <c r="I202" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="J202">
         <v>-0.32110179999999999</v>
@@ -30844,7 +30730,7 @@
         <v>51.565540200000001</v>
       </c>
       <c r="I211" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="J211">
         <v>-0.31144769999999999</v>
@@ -30855,7 +30741,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="B212">
         <v>-0.15244099999999999</v>
@@ -30904,7 +30790,7 @@
         <v>51.5034566</v>
       </c>
       <c r="E214" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="F214">
         <v>-0.35249200000000003</v>
@@ -30953,7 +30839,7 @@
         <v>51.563909700000004</v>
       </c>
       <c r="I216" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="J216">
         <v>-0.302631845256497</v>
@@ -31064,7 +30950,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="B222">
         <v>-0.142787</v>
@@ -31227,7 +31113,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="B230">
         <v>-0.133798</v>
@@ -31310,7 +31196,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="B234">
         <v>-0.12842600000000001</v>
@@ -31373,7 +31259,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="B237">
         <v>-0.124436</v>
@@ -31422,7 +31308,7 @@
         <v>51.557415800000001</v>
       </c>
       <c r="I239" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
@@ -31461,7 +31347,7 @@
         <v>51.515009599999999</v>
       </c>
       <c r="E242" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -31564,7 +31450,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="B250">
         <v>-0.120475</v>
@@ -31749,7 +31635,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="B263">
         <v>-0.12428500000000001</v>
@@ -31814,7 +31700,7 @@
         <v>51.525480000000002</v>
       </c>
       <c r="E267" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="F267">
         <v>-0.315745</v>
@@ -31937,7 +31823,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="B276">
         <v>-0.123538</v>
@@ -32136,7 +32022,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="B290">
         <v>-0.113244</v>
@@ -32265,7 +32151,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="B299">
         <v>-0.105876</v>
@@ -32358,7 +32244,7 @@
         <v>51.568626199999997</v>
       </c>
       <c r="E305" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="F305">
         <v>-0.29960999999999999</v>
@@ -32509,7 +32395,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B316">
         <v>-9.6117999999999995E-2</v>
@@ -32806,7 +32692,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="B337">
         <v>-0.102953</v>
@@ -32907,7 +32793,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="B344">
         <v>-0.109886</v>
@@ -32930,7 +32816,7 @@
         <v>51.598867800000001</v>
       </c>
       <c r="E345" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="F345">
         <v>-0.28434100000000001</v>
@@ -33123,7 +33009,7 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="B359">
         <v>-0.124235</v>
@@ -33230,7 +33116,7 @@
         <v>51.610329999999998</v>
       </c>
       <c r="E366" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="F366">
         <v>-0.28886800000000001</v>
@@ -33521,7 +33407,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="B387">
         <v>-0.13306200000000001</v>
@@ -33628,7 +33514,7 @@
         <v>51.618164999999998</v>
       </c>
       <c r="E394" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="F394">
         <v>-0.28826499999999999</v>
@@ -34023,7 +33909,7 @@
         <v>51.626124900000001</v>
       </c>
       <c r="E422" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="F422">
         <v>-0.28046199999999999</v>
@@ -34146,7 +34032,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="B437">
         <v>-0.12781600000000001</v>
@@ -34374,7 +34260,7 @@
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="B465">
         <v>-0.13218199999999999</v>
@@ -34618,7 +34504,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B495">
         <v>-0.149171</v>
@@ -36350,2881 +36236,2398 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD143"/>
+  <dimension ref="A1:AA143"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+        <v>342</v>
+      </c>
       <c r="F1" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="V1" s="3"/>
+      <c r="X1" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1">
+        <v>149</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1">
+        <v>185</v>
+      </c>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="1">
+        <v>236</v>
+      </c>
+      <c r="O2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>126</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="1">
+        <v>146</v>
+      </c>
+      <c r="X2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1">
+        <v>150</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="1">
+        <v>186</v>
+      </c>
+      <c r="L3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="1">
+        <v>237</v>
+      </c>
+      <c r="O3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>127</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="1">
+        <v>187</v>
+      </c>
+      <c r="X3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
+        <v>151</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1">
+        <v>188</v>
+      </c>
+      <c r="L4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="1">
+        <v>238</v>
+      </c>
+      <c r="O4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>128</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="1">
+        <v>246</v>
+      </c>
+      <c r="X4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>152</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="1">
+        <v>189</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="1">
+        <v>239</v>
+      </c>
+      <c r="O5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>129</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="1">
+        <v>247</v>
+      </c>
+      <c r="X5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1">
+        <v>153</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="1">
+        <v>190</v>
+      </c>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="1">
+        <v>240</v>
+      </c>
+      <c r="O6" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>130</v>
+      </c>
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="1">
+        <v>292</v>
+      </c>
+      <c r="X6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1">
+        <v>154</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="1">
+        <v>191</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="1">
+        <v>241</v>
+      </c>
+      <c r="O7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>131</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="1">
+        <v>293</v>
+      </c>
+      <c r="X7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1">
+        <v>155</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="1">
+        <v>192</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="1">
+        <v>242</v>
+      </c>
+      <c r="O8" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>132</v>
+      </c>
+      <c r="R8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="1">
+        <v>294</v>
+      </c>
+      <c r="X8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1">
+        <v>156</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="1">
+        <v>193</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="1">
+        <v>243</v>
+      </c>
+      <c r="O9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>133</v>
+      </c>
+      <c r="R9" t="s">
+        <v>55</v>
+      </c>
+      <c r="W9" s="1">
+        <v>295</v>
+      </c>
+      <c r="X9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="1">
+        <v>194</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="1">
+        <v>244</v>
+      </c>
+      <c r="O10" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>134</v>
+      </c>
+      <c r="R10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="1">
+        <v>296</v>
+      </c>
+      <c r="X10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1">
+        <v>167</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="1">
+        <v>195</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="1">
+        <v>245</v>
+      </c>
+      <c r="O11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>135</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" s="1">
+        <v>297</v>
+      </c>
+      <c r="X11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1">
+        <v>196</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="1">
+        <v>248</v>
+      </c>
+      <c r="O12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>136</v>
+      </c>
+      <c r="R12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" s="1">
+        <v>298</v>
+      </c>
+      <c r="X12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="1">
+        <v>197</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="1">
+        <v>249</v>
+      </c>
+      <c r="O13" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>146</v>
+      </c>
+      <c r="R13" t="s">
+        <v>59</v>
+      </c>
+      <c r="W13" s="1">
+        <v>299</v>
+      </c>
+      <c r="X13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="1">
+        <v>198</v>
+      </c>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" s="1">
+        <v>250</v>
+      </c>
+      <c r="O14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>157</v>
+      </c>
+      <c r="R14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" s="1">
+        <v>300</v>
+      </c>
+      <c r="X14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1">
+        <v>171</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="1">
+        <v>199</v>
+      </c>
+      <c r="L15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="1">
+        <v>332</v>
+      </c>
+      <c r="O15" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>158</v>
+      </c>
+      <c r="R15" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" s="1">
+        <v>301</v>
+      </c>
+      <c r="X15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
+        <v>172</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="1">
+        <v>200</v>
+      </c>
+      <c r="L16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="1">
+        <v>333</v>
+      </c>
+      <c r="O16" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>159</v>
+      </c>
+      <c r="R16" t="s">
+        <v>72</v>
+      </c>
+      <c r="W16" s="1">
+        <v>302</v>
+      </c>
+      <c r="X16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="1">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" s="1">
+        <v>334</v>
+      </c>
+      <c r="O17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>160</v>
+      </c>
+      <c r="R17" t="s">
+        <v>73</v>
+      </c>
+      <c r="W17" s="1">
+        <v>303</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1">
+        <v>174</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="1">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s">
+        <v>115</v>
+      </c>
+      <c r="N18" s="1">
+        <v>335</v>
+      </c>
+      <c r="O18" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>161</v>
+      </c>
+      <c r="R18" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" s="1">
+        <v>304</v>
+      </c>
+      <c r="X18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>148</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="1">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N19" s="1">
+        <v>336</v>
+      </c>
+      <c r="O19" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>162</v>
+      </c>
+      <c r="R19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" s="1">
+        <v>305</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="1">
+        <v>176</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="1">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="1">
+        <v>337</v>
+      </c>
+      <c r="O20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>163</v>
+      </c>
+      <c r="R20" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" s="1">
+        <v>306</v>
+      </c>
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="1">
+        <v>177</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="1">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="1">
+        <v>338</v>
+      </c>
+      <c r="O21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>164</v>
+      </c>
+      <c r="R21" t="s">
+        <v>77</v>
+      </c>
+      <c r="W21" s="1">
+        <v>307</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="1">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="1">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" s="1">
+        <v>339</v>
+      </c>
+      <c r="O22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>165</v>
+      </c>
+      <c r="R22" t="s">
+        <v>78</v>
+      </c>
+      <c r="W22" s="1">
+        <v>308</v>
+      </c>
+      <c r="X22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="1">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23" s="1">
+        <v>340</v>
+      </c>
+      <c r="O23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>166</v>
+      </c>
+      <c r="R23" t="s">
+        <v>79</v>
+      </c>
+      <c r="W23" s="1">
+        <v>309</v>
+      </c>
+      <c r="X23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1">
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="1">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" s="1">
+        <v>341</v>
+      </c>
+      <c r="O24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>111</v>
+      </c>
+      <c r="R24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" s="1">
+        <v>310</v>
+      </c>
+      <c r="X24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1">
+        <v>181</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="1">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
+        <v>122</v>
+      </c>
+      <c r="N25" s="1">
+        <v>342</v>
+      </c>
+      <c r="O25" t="s">
+        <v>218</v>
+      </c>
+      <c r="W25" s="1">
+        <v>311</v>
+      </c>
+      <c r="X25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1">
+        <v>182</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="1">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="1">
+        <v>343</v>
+      </c>
+      <c r="O26" t="s">
+        <v>219</v>
+      </c>
+      <c r="W26" s="1">
+        <v>312</v>
+      </c>
+      <c r="X26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="1">
+        <v>183</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="1">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="1">
+        <v>344</v>
+      </c>
+      <c r="O27" t="s">
+        <v>220</v>
+      </c>
+      <c r="W27" s="1">
+        <v>313</v>
+      </c>
+      <c r="X27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>165</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1">
+        <v>184</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="1">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>125</v>
+      </c>
+      <c r="N28" s="1">
+        <v>345</v>
+      </c>
+      <c r="O28" t="s">
+        <v>221</v>
+      </c>
+      <c r="W28" s="1">
+        <v>314</v>
+      </c>
+      <c r="X28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>166</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="1">
+        <v>411</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" s="1">
+        <v>213</v>
+      </c>
+      <c r="L29" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="1">
+        <v>346</v>
+      </c>
+      <c r="O29" t="s">
+        <v>222</v>
+      </c>
+      <c r="W29" s="1">
+        <v>315</v>
+      </c>
+      <c r="X29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1">
+        <v>412</v>
+      </c>
+      <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" s="1">
+        <v>214</v>
+      </c>
+      <c r="L30" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="1">
+        <v>412</v>
+      </c>
+      <c r="O30" t="s">
+        <v>234</v>
+      </c>
+      <c r="W30" s="1">
+        <v>316</v>
+      </c>
+      <c r="X30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1">
+        <v>413</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" s="1">
+        <v>215</v>
+      </c>
+      <c r="L31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" s="1">
+        <v>413</v>
+      </c>
+      <c r="O31" t="s">
+        <v>235</v>
+      </c>
+      <c r="W31" s="1">
+        <v>317</v>
+      </c>
+      <c r="X31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1">
+        <v>414</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" s="1">
+        <v>216</v>
+      </c>
+      <c r="L32" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" s="1">
+        <v>414</v>
+      </c>
+      <c r="O32" t="s">
+        <v>236</v>
+      </c>
+      <c r="W32" s="1">
+        <v>318</v>
+      </c>
+      <c r="X32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1">
+        <v>415</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" s="1">
+        <v>217</v>
+      </c>
+      <c r="L33" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="1">
+        <v>415</v>
+      </c>
+      <c r="O33" t="s">
+        <v>237</v>
+      </c>
+      <c r="W33" s="1">
+        <v>319</v>
+      </c>
+      <c r="X33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1">
+        <v>416</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="1">
+        <v>218</v>
+      </c>
+      <c r="L34" t="s">
+        <v>131</v>
+      </c>
+      <c r="N34" s="1">
+        <v>416</v>
+      </c>
+      <c r="O34" t="s">
+        <v>238</v>
+      </c>
+      <c r="W34" s="1">
+        <v>320</v>
+      </c>
+      <c r="X34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>252</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="1">
+        <v>417</v>
+      </c>
+      <c r="F35" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="1">
+        <v>219</v>
+      </c>
+      <c r="L35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N35" s="1">
+        <v>417</v>
+      </c>
+      <c r="O35" t="s">
+        <v>239</v>
+      </c>
+      <c r="W35" s="1">
+        <v>321</v>
+      </c>
+      <c r="X35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>253</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="1">
+        <v>418</v>
+      </c>
+      <c r="F36" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" s="1">
+        <v>220</v>
+      </c>
+      <c r="L36" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" s="1">
+        <v>418</v>
+      </c>
+      <c r="O36" t="s">
+        <v>240</v>
+      </c>
+      <c r="W36" s="1">
+        <v>322</v>
+      </c>
+      <c r="X36" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="1">
+        <v>419</v>
+      </c>
+      <c r="F37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K37" s="1">
+        <v>221</v>
+      </c>
+      <c r="L37" t="s">
+        <v>134</v>
+      </c>
+      <c r="N37" s="1">
+        <v>419</v>
+      </c>
+      <c r="O37" t="s">
+        <v>241</v>
+      </c>
+      <c r="W37" s="1">
+        <v>323</v>
+      </c>
+      <c r="X37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="1">
+        <v>502</v>
+      </c>
+      <c r="F38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" s="1">
+        <v>222</v>
+      </c>
+      <c r="L38" t="s">
+        <v>135</v>
+      </c>
+      <c r="W38" s="1">
+        <v>324</v>
+      </c>
+      <c r="X38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="1">
+        <v>503</v>
+      </c>
+      <c r="F39" t="s">
+        <v>269</v>
+      </c>
+      <c r="K39" s="1">
+        <v>223</v>
+      </c>
+      <c r="L39" t="s">
+        <v>136</v>
+      </c>
+      <c r="W39" s="1">
+        <v>331</v>
+      </c>
+      <c r="X39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>257</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="1">
+        <v>504</v>
+      </c>
+      <c r="F40" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" s="1">
+        <v>224</v>
+      </c>
+      <c r="L40" t="s">
+        <v>137</v>
+      </c>
+      <c r="W40" s="1">
+        <v>347</v>
+      </c>
+      <c r="X40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>258</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="1">
+        <v>225</v>
+      </c>
+      <c r="L41" t="s">
+        <v>138</v>
+      </c>
+      <c r="W41" s="1">
+        <v>348</v>
+      </c>
+      <c r="X41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>259</v>
+      </c>
+      <c r="C42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="1">
+        <v>226</v>
+      </c>
+      <c r="L42" t="s">
+        <v>139</v>
+      </c>
+      <c r="W42" s="1">
+        <v>349</v>
+      </c>
+      <c r="X42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>260</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="K43" s="1">
+        <v>227</v>
+      </c>
+      <c r="L43" t="s">
+        <v>140</v>
+      </c>
+      <c r="W43" s="1">
+        <v>350</v>
+      </c>
+      <c r="X43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>261</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="K44" s="1">
+        <v>228</v>
+      </c>
+      <c r="L44" t="s">
+        <v>141</v>
+      </c>
+      <c r="W44" s="1">
+        <v>351</v>
+      </c>
+      <c r="X44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="1">
+        <v>229</v>
+      </c>
+      <c r="L45" t="s">
+        <v>142</v>
+      </c>
+      <c r="W45" s="1">
+        <v>373</v>
+      </c>
+      <c r="X45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="K46" s="1">
+        <v>230</v>
+      </c>
+      <c r="L46" t="s">
+        <v>143</v>
+      </c>
+      <c r="W46" s="1">
         <v>381</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="X46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="K47" s="1">
+        <v>231</v>
+      </c>
+      <c r="L47" t="s">
+        <v>144</v>
+      </c>
+      <c r="W47" s="1">
         <v>382</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y1" s="3"/>
-      <c r="AA1" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B2" s="1">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1">
-        <v>85</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1">
-        <v>149</v>
-      </c>
-      <c r="L2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="1">
-        <v>185</v>
-      </c>
-      <c r="O2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>236</v>
-      </c>
-      <c r="R2" t="s">
-        <v>184</v>
-      </c>
-      <c r="T2" s="1">
-        <v>126</v>
-      </c>
-      <c r="U2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" s="1">
+      <c r="X47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="K48" s="1">
+        <v>232</v>
+      </c>
+      <c r="L48" t="s">
+        <v>145</v>
+      </c>
+      <c r="W48" s="1">
+        <v>389</v>
+      </c>
+      <c r="X48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="K49" s="1">
+        <v>233</v>
+      </c>
+      <c r="L49" t="s">
         <v>146</v>
       </c>
-      <c r="AA2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1">
-        <v>86</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="1">
-        <v>150</v>
-      </c>
-      <c r="L3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="1">
-        <v>186</v>
-      </c>
-      <c r="O3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>237</v>
-      </c>
-      <c r="R3" t="s">
-        <v>185</v>
-      </c>
-      <c r="T3" s="1">
-        <v>127</v>
-      </c>
-      <c r="U3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>187</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1">
-        <v>87</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="1">
-        <v>151</v>
-      </c>
-      <c r="L4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="1">
-        <v>188</v>
-      </c>
-      <c r="O4" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>238</v>
-      </c>
-      <c r="R4" t="s">
-        <v>186</v>
-      </c>
-      <c r="T4" s="1">
-        <v>128</v>
-      </c>
-      <c r="U4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" s="1">
+      <c r="W49" s="1">
+        <v>430</v>
+      </c>
+      <c r="X49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="K50" s="1">
+        <v>234</v>
+      </c>
+      <c r="L50" t="s">
+        <v>147</v>
+      </c>
+      <c r="W50" s="1">
+        <v>442</v>
+      </c>
+      <c r="X50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="K51" s="1">
+        <v>235</v>
+      </c>
+      <c r="L51" t="s">
+        <v>148</v>
+      </c>
+      <c r="W51" s="1">
+        <v>443</v>
+      </c>
+      <c r="X51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="K52" s="1">
+        <v>505</v>
+      </c>
+      <c r="L52" t="s">
+        <v>271</v>
+      </c>
+      <c r="W52" s="1">
+        <v>456</v>
+      </c>
+      <c r="X52" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="K53" s="1">
+        <v>506</v>
+      </c>
+      <c r="L53" t="s">
+        <v>272</v>
+      </c>
+      <c r="W53" s="1">
+        <v>457</v>
+      </c>
+      <c r="X53" t="s">
         <v>246</v>
       </c>
-      <c r="AA4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1">
-        <v>113</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="1">
-        <v>88</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1">
-        <v>152</v>
-      </c>
-      <c r="L5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" s="1">
-        <v>189</v>
-      </c>
-      <c r="O5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>239</v>
-      </c>
-      <c r="R5" t="s">
-        <v>187</v>
-      </c>
-      <c r="T5" s="1">
-        <v>129</v>
-      </c>
-      <c r="U5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z5" s="1">
+    </row>
+    <row r="54" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W54" s="1">
+        <v>458</v>
+      </c>
+      <c r="X54" t="s">
         <v>247</v>
       </c>
-      <c r="AA5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1">
-        <v>114</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="1">
-        <v>89</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1">
-        <v>153</v>
-      </c>
-      <c r="L6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N6" s="1">
-        <v>190</v>
-      </c>
-      <c r="O6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>240</v>
-      </c>
-      <c r="R6" t="s">
-        <v>188</v>
-      </c>
-      <c r="T6" s="1">
-        <v>130</v>
-      </c>
-      <c r="U6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z6" s="1">
+    </row>
+    <row r="55" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W55" s="1">
+        <v>459</v>
+      </c>
+      <c r="X55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W56" s="1">
+        <v>460</v>
+      </c>
+      <c r="X56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W57" s="1">
+        <v>461</v>
+      </c>
+      <c r="X57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W58" s="1">
+        <v>462</v>
+      </c>
+      <c r="X58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W59" s="1">
+        <v>463</v>
+      </c>
+      <c r="X59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W60" s="1">
+        <v>464</v>
+      </c>
+      <c r="X60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W61" s="1">
+        <v>465</v>
+      </c>
+      <c r="X61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W62" s="1">
+        <v>466</v>
+      </c>
+      <c r="X62" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W63" s="1">
+        <v>467</v>
+      </c>
+      <c r="X63" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="W64" s="1">
+        <v>468</v>
+      </c>
+      <c r="X64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W65" s="1">
+        <v>469</v>
+      </c>
+      <c r="X65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W66" s="1">
+        <v>470</v>
+      </c>
+      <c r="X66" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W67" s="1">
+        <v>491</v>
+      </c>
+      <c r="X67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W68" s="1">
+        <v>492</v>
+      </c>
+      <c r="X68" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W69" s="1">
+        <v>493</v>
+      </c>
+      <c r="X69" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W70" s="1">
+        <v>494</v>
+      </c>
+      <c r="X70" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W71" s="1">
+        <v>495</v>
+      </c>
+      <c r="X71" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W72" s="1">
+        <v>496</v>
+      </c>
+      <c r="X72" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W73" s="1">
+        <v>497</v>
+      </c>
+      <c r="X73" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W74" s="1">
+        <v>498</v>
+      </c>
+      <c r="X74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W75" s="1">
+        <v>507</v>
+      </c>
+      <c r="X75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W76" s="1">
+        <v>508</v>
+      </c>
+      <c r="X76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W77" s="1">
+        <v>509</v>
+      </c>
+      <c r="X77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W78" s="1">
+        <v>510</v>
+      </c>
+      <c r="X78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W79" s="1">
+        <v>511</v>
+      </c>
+      <c r="X79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W80" s="1">
+        <v>512</v>
+      </c>
+      <c r="X80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W81" s="1">
+        <v>513</v>
+      </c>
+      <c r="X81" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W82" s="1">
+        <v>514</v>
+      </c>
+      <c r="X82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W83" s="1">
+        <v>515</v>
+      </c>
+      <c r="X83" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W84" s="1">
+        <v>516</v>
+      </c>
+      <c r="X84" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W85" s="1">
+        <v>517</v>
+      </c>
+      <c r="X85" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W86" s="1">
+        <v>518</v>
+      </c>
+      <c r="X86" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W87" s="1">
+        <v>519</v>
+      </c>
+      <c r="X87" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W88" s="1">
+        <v>520</v>
+      </c>
+      <c r="X88" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W89" s="1">
+        <v>521</v>
+      </c>
+      <c r="X89" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W90" s="1">
+        <v>522</v>
+      </c>
+      <c r="X90" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W91" s="1">
+        <v>523</v>
+      </c>
+      <c r="X91" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W92" s="1">
+        <v>524</v>
+      </c>
+      <c r="X92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W93" s="1">
+        <v>525</v>
+      </c>
+      <c r="X93" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W94" s="1">
+        <v>526</v>
+      </c>
+      <c r="X94" t="s">
         <v>292</v>
       </c>
-      <c r="AA6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
-        <v>115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="1">
-        <v>90</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="1">
-        <v>154</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N7" s="1">
-        <v>191</v>
-      </c>
-      <c r="O7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>241</v>
-      </c>
-      <c r="R7" t="s">
-        <v>189</v>
-      </c>
-      <c r="T7" s="1">
-        <v>131</v>
-      </c>
-      <c r="U7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z7" s="1">
+    </row>
+    <row r="95" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W95" s="1">
+        <v>527</v>
+      </c>
+      <c r="X95" t="s">
         <v>293</v>
       </c>
-      <c r="AA7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1">
-        <v>116</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="1">
-        <v>91</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="1">
-        <v>155</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8" s="1">
-        <v>192</v>
-      </c>
-      <c r="O8" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>242</v>
-      </c>
-      <c r="R8" t="s">
-        <v>190</v>
-      </c>
-      <c r="T8" s="1">
-        <v>132</v>
-      </c>
-      <c r="U8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z8" s="1">
+    </row>
+    <row r="96" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W96" s="1">
+        <v>528</v>
+      </c>
+      <c r="X96" t="s">
         <v>294</v>
       </c>
-      <c r="AA8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1">
-        <v>117</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="1">
-        <v>147</v>
-      </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="1">
-        <v>156</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" s="1">
-        <v>193</v>
-      </c>
-      <c r="O9" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>243</v>
-      </c>
-      <c r="R9" t="s">
-        <v>191</v>
-      </c>
-      <c r="T9" s="1">
-        <v>133</v>
-      </c>
-      <c r="U9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z9" s="1">
+    </row>
+    <row r="97" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W97" s="1">
+        <v>529</v>
+      </c>
+      <c r="X97" t="s">
         <v>295</v>
       </c>
-      <c r="AA9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1">
-        <v>118</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="1">
-        <v>148</v>
-      </c>
-      <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="1">
-        <v>194</v>
-      </c>
-      <c r="O10" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>244</v>
-      </c>
-      <c r="R10" t="s">
-        <v>192</v>
-      </c>
-      <c r="T10" s="1">
-        <v>134</v>
-      </c>
-      <c r="U10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z10" s="1">
+    </row>
+    <row r="98" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W98" s="1">
+        <v>530</v>
+      </c>
+      <c r="X98" t="s">
         <v>296</v>
       </c>
-      <c r="AA10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1">
-        <v>119</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="1">
-        <v>167</v>
-      </c>
-      <c r="I11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N11" s="1">
-        <v>195</v>
-      </c>
-      <c r="O11" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>245</v>
-      </c>
-      <c r="R11" t="s">
-        <v>193</v>
-      </c>
-      <c r="T11" s="1">
-        <v>135</v>
-      </c>
-      <c r="U11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z11" s="1">
+    </row>
+    <row r="99" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W99" s="1">
+        <v>531</v>
+      </c>
+      <c r="X99" t="s">
         <v>297</v>
       </c>
-      <c r="AA11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1">
-        <v>120</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="1">
-        <v>168</v>
-      </c>
-      <c r="I12" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="1">
-        <v>196</v>
-      </c>
-      <c r="O12" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>248</v>
-      </c>
-      <c r="R12" t="s">
-        <v>196</v>
-      </c>
-      <c r="T12" s="1">
-        <v>136</v>
-      </c>
-      <c r="U12" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z12" s="1">
+    </row>
+    <row r="100" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W100" s="1">
+        <v>532</v>
+      </c>
+      <c r="X100" t="s">
         <v>298</v>
       </c>
-      <c r="AA12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1">
-        <v>121</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="1">
-        <v>169</v>
-      </c>
-      <c r="I13" t="s">
-        <v>117</v>
-      </c>
-      <c r="N13" s="1">
-        <v>197</v>
-      </c>
-      <c r="O13" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>249</v>
-      </c>
-      <c r="R13" t="s">
-        <v>197</v>
-      </c>
-      <c r="T13" s="1">
-        <v>146</v>
-      </c>
-      <c r="U13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z13" s="1">
+    </row>
+    <row r="101" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W101" s="1">
+        <v>533</v>
+      </c>
+      <c r="X101" t="s">
         <v>299</v>
       </c>
-      <c r="AA13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1">
-        <v>122</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="1">
-        <v>170</v>
-      </c>
-      <c r="I14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N14" s="1">
-        <v>198</v>
-      </c>
-      <c r="O14" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>250</v>
-      </c>
-      <c r="R14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T14" s="1">
-        <v>157</v>
-      </c>
-      <c r="U14" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z14" s="1">
+    </row>
+    <row r="102" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W102" s="1">
+        <v>534</v>
+      </c>
+      <c r="X102" t="s">
         <v>300</v>
       </c>
-      <c r="AA14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1">
-        <v>123</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="1">
-        <v>171</v>
-      </c>
-      <c r="I15" t="s">
-        <v>119</v>
-      </c>
-      <c r="N15" s="1">
-        <v>199</v>
-      </c>
-      <c r="O15" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q15" s="1">
+    </row>
+    <row r="103" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W103" s="1">
+        <v>535</v>
+      </c>
+      <c r="X103" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W104" s="1">
+        <v>536</v>
+      </c>
+      <c r="X104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W105" s="1">
+        <v>537</v>
+      </c>
+      <c r="X105" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W106" s="1">
+        <v>538</v>
+      </c>
+      <c r="X106" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W107" s="1">
+        <v>539</v>
+      </c>
+      <c r="X107" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W108" s="1">
+        <v>540</v>
+      </c>
+      <c r="X108" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W109" s="1">
+        <v>541</v>
+      </c>
+      <c r="X109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W110" s="1">
+        <v>542</v>
+      </c>
+      <c r="X110" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W111" s="1">
+        <v>543</v>
+      </c>
+      <c r="X111" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W112" s="1">
+        <v>544</v>
+      </c>
+      <c r="X112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W113" s="1">
+        <v>545</v>
+      </c>
+      <c r="X113" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W114" s="1">
+        <v>546</v>
+      </c>
+      <c r="X114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W115" s="1">
+        <v>547</v>
+      </c>
+      <c r="X115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W116" s="1">
+        <v>548</v>
+      </c>
+      <c r="X116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W117" s="1">
+        <v>549</v>
+      </c>
+      <c r="X117" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W118" s="1">
+        <v>550</v>
+      </c>
+      <c r="X118" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W119" s="1">
+        <v>551</v>
+      </c>
+      <c r="X119" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W120" s="1">
+        <v>552</v>
+      </c>
+      <c r="X120" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W121" s="1">
+        <v>553</v>
+      </c>
+      <c r="X121" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W122" s="1">
+        <v>554</v>
+      </c>
+      <c r="X122" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W123" s="1">
+        <v>555</v>
+      </c>
+      <c r="X123" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W124" s="1">
+        <v>556</v>
+      </c>
+      <c r="X124" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W125" s="1">
+        <v>557</v>
+      </c>
+      <c r="X125" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W126" s="1">
+        <v>558</v>
+      </c>
+      <c r="X126" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W127" s="1">
+        <v>559</v>
+      </c>
+      <c r="X127" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W128" s="1">
+        <v>560</v>
+      </c>
+      <c r="X128" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W129" s="1">
+        <v>561</v>
+      </c>
+      <c r="X129" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W130" s="1">
+        <v>562</v>
+      </c>
+      <c r="X130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W131" s="1">
+        <v>563</v>
+      </c>
+      <c r="X131" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W132" s="1">
+        <v>564</v>
+      </c>
+      <c r="X132" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W133" s="1">
+        <v>565</v>
+      </c>
+      <c r="X133" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W134" s="1">
+        <v>566</v>
+      </c>
+      <c r="X134" t="s">
         <v>332</v>
       </c>
-      <c r="R15" t="s">
-        <v>243</v>
-      </c>
-      <c r="T15" s="1">
-        <v>158</v>
-      </c>
-      <c r="U15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>301</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1">
-        <v>124</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="1">
-        <v>172</v>
-      </c>
-      <c r="I16" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" s="1">
-        <v>200</v>
-      </c>
-      <c r="O16" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q16" s="1">
+    </row>
+    <row r="135" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W135" s="1">
+        <v>567</v>
+      </c>
+      <c r="X135" t="s">
         <v>333</v>
       </c>
-      <c r="R16" t="s">
-        <v>244</v>
-      </c>
-      <c r="T16" s="1">
-        <v>159</v>
-      </c>
-      <c r="U16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>302</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1">
-        <v>125</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="1">
-        <v>173</v>
-      </c>
-      <c r="I17" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" s="1">
-        <v>201</v>
-      </c>
-      <c r="O17" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q17" s="1">
+    </row>
+    <row r="136" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W136" s="1">
+        <v>568</v>
+      </c>
+      <c r="X136" t="s">
         <v>334</v>
       </c>
-      <c r="R17" t="s">
-        <v>245</v>
-      </c>
-      <c r="T17" s="1">
-        <v>160</v>
-      </c>
-      <c r="U17" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>303</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="1">
-        <v>147</v>
-      </c>
-      <c r="F18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="1">
-        <v>174</v>
-      </c>
-      <c r="I18" t="s">
-        <v>122</v>
-      </c>
-      <c r="N18" s="1">
-        <v>202</v>
-      </c>
-      <c r="O18" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q18" s="1">
+    </row>
+    <row r="137" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W137" s="1">
+        <v>569</v>
+      </c>
+      <c r="X137" t="s">
         <v>335</v>
       </c>
-      <c r="R18" t="s">
-        <v>246</v>
-      </c>
-      <c r="T18" s="1">
-        <v>161</v>
-      </c>
-      <c r="U18" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>304</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1">
-        <v>148</v>
-      </c>
-      <c r="F19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="1">
-        <v>175</v>
-      </c>
-      <c r="I19" t="s">
-        <v>123</v>
-      </c>
-      <c r="N19" s="1">
-        <v>203</v>
-      </c>
-      <c r="O19" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q19" s="1">
+    </row>
+    <row r="138" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W138" s="1">
+        <v>570</v>
+      </c>
+      <c r="X138" t="s">
         <v>336</v>
       </c>
-      <c r="R19" t="s">
-        <v>247</v>
-      </c>
-      <c r="T19" s="1">
-        <v>162</v>
-      </c>
-      <c r="U19" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>305</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>94</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="1">
-        <v>157</v>
-      </c>
-      <c r="F20" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="1">
-        <v>176</v>
-      </c>
-      <c r="I20" t="s">
-        <v>124</v>
-      </c>
-      <c r="N20" s="1">
-        <v>204</v>
-      </c>
-      <c r="O20" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q20" s="1">
+    </row>
+    <row r="139" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W139" s="1">
+        <v>571</v>
+      </c>
+      <c r="X139" t="s">
         <v>337</v>
       </c>
-      <c r="R20" t="s">
-        <v>248</v>
-      </c>
-      <c r="T20" s="1">
-        <v>163</v>
-      </c>
-      <c r="U20" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>306</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="1">
-        <v>158</v>
-      </c>
-      <c r="F21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="1">
-        <v>177</v>
-      </c>
-      <c r="I21" t="s">
-        <v>125</v>
-      </c>
-      <c r="N21" s="1">
-        <v>205</v>
-      </c>
-      <c r="O21" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q21" s="1">
+    </row>
+    <row r="140" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W140" s="1">
+        <v>572</v>
+      </c>
+      <c r="X140" t="s">
         <v>338</v>
       </c>
-      <c r="R21" t="s">
-        <v>249</v>
-      </c>
-      <c r="T21" s="1">
-        <v>164</v>
-      </c>
-      <c r="U21" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>307</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>98</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="1">
-        <v>159</v>
-      </c>
-      <c r="F22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="1">
-        <v>178</v>
-      </c>
-      <c r="I22" t="s">
-        <v>126</v>
-      </c>
-      <c r="N22" s="1">
-        <v>206</v>
-      </c>
-      <c r="O22" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q22" s="1">
+    </row>
+    <row r="141" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W141" s="1">
+        <v>573</v>
+      </c>
+      <c r="X141" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="142" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W142" s="1">
+        <v>574</v>
+      </c>
+      <c r="X142" t="s">
         <v>339</v>
       </c>
-      <c r="R22" t="s">
-        <v>250</v>
-      </c>
-      <c r="T22" s="1">
-        <v>165</v>
-      </c>
-      <c r="U22" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>308</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="1">
-        <v>160</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="1">
-        <v>179</v>
-      </c>
-      <c r="I23" t="s">
-        <v>127</v>
-      </c>
-      <c r="N23" s="1">
-        <v>207</v>
-      </c>
-      <c r="O23" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q23" s="1">
+    </row>
+    <row r="143" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W143" s="1">
+        <v>575</v>
+      </c>
+      <c r="X143" t="s">
         <v>340</v>
-      </c>
-      <c r="R23" t="s">
-        <v>251</v>
-      </c>
-      <c r="T23" s="1">
-        <v>166</v>
-      </c>
-      <c r="U23" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>309</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="1">
-        <v>161</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="1">
-        <v>180</v>
-      </c>
-      <c r="I24" t="s">
-        <v>128</v>
-      </c>
-      <c r="N24" s="1">
-        <v>208</v>
-      </c>
-      <c r="O24" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>341</v>
-      </c>
-      <c r="R24" t="s">
-        <v>252</v>
-      </c>
-      <c r="T24" s="1">
-        <v>111</v>
-      </c>
-      <c r="U24" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>310</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <v>101</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="1">
-        <v>162</v>
-      </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="1">
-        <v>181</v>
-      </c>
-      <c r="I25" t="s">
-        <v>129</v>
-      </c>
-      <c r="N25" s="1">
-        <v>209</v>
-      </c>
-      <c r="O25" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>342</v>
-      </c>
-      <c r="R25" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>311</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1">
-        <v>163</v>
-      </c>
-      <c r="F26" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="1">
-        <v>182</v>
-      </c>
-      <c r="I26" t="s">
-        <v>130</v>
-      </c>
-      <c r="N26" s="1">
-        <v>210</v>
-      </c>
-      <c r="O26" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>343</v>
-      </c>
-      <c r="R26" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>312</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="1">
-        <v>164</v>
-      </c>
-      <c r="F27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="1">
-        <v>183</v>
-      </c>
-      <c r="I27" t="s">
-        <v>131</v>
-      </c>
-      <c r="N27" s="1">
-        <v>211</v>
-      </c>
-      <c r="O27" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>344</v>
-      </c>
-      <c r="R27" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>313</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="1">
-        <v>165</v>
-      </c>
-      <c r="F28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="1">
-        <v>184</v>
-      </c>
-      <c r="I28" t="s">
-        <v>132</v>
-      </c>
-      <c r="N28" s="1">
-        <v>212</v>
-      </c>
-      <c r="O28" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>345</v>
-      </c>
-      <c r="R28" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>314</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="1">
-        <v>166</v>
-      </c>
-      <c r="F29" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="1">
-        <v>411</v>
-      </c>
-      <c r="I29" t="s">
-        <v>268</v>
-      </c>
-      <c r="N29" s="1">
-        <v>213</v>
-      </c>
-      <c r="O29" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>346</v>
-      </c>
-      <c r="R29" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>315</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>112</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="1">
-        <v>106</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="1">
-        <v>412</v>
-      </c>
-      <c r="I30" t="s">
-        <v>269</v>
-      </c>
-      <c r="N30" s="1">
-        <v>214</v>
-      </c>
-      <c r="O30" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>412</v>
-      </c>
-      <c r="R30" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>316</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="1">
-        <v>107</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="1">
-        <v>413</v>
-      </c>
-      <c r="I31" t="s">
-        <v>270</v>
-      </c>
-      <c r="N31" s="1">
-        <v>215</v>
-      </c>
-      <c r="O31" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>413</v>
-      </c>
-      <c r="R31" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>317</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>115</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="1">
-        <v>108</v>
-      </c>
-      <c r="F32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="1">
-        <v>414</v>
-      </c>
-      <c r="I32" t="s">
-        <v>271</v>
-      </c>
-      <c r="N32" s="1">
-        <v>216</v>
-      </c>
-      <c r="O32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>414</v>
-      </c>
-      <c r="R32" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>318</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>116</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="1">
-        <v>109</v>
-      </c>
-      <c r="F33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="1">
-        <v>415</v>
-      </c>
-      <c r="I33" t="s">
-        <v>272</v>
-      </c>
-      <c r="N33" s="1">
-        <v>217</v>
-      </c>
-      <c r="O33" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>415</v>
-      </c>
-      <c r="R33" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>319</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="1">
-        <v>110</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="1">
-        <v>416</v>
-      </c>
-      <c r="I34" t="s">
-        <v>273</v>
-      </c>
-      <c r="N34" s="1">
-        <v>218</v>
-      </c>
-      <c r="O34" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>416</v>
-      </c>
-      <c r="R34" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>320</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>118</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="1">
-        <v>252</v>
-      </c>
-      <c r="F35" t="s">
-        <v>199</v>
-      </c>
-      <c r="H35" s="1">
-        <v>417</v>
-      </c>
-      <c r="I35" t="s">
-        <v>274</v>
-      </c>
-      <c r="N35" s="1">
-        <v>219</v>
-      </c>
-      <c r="O35" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>417</v>
-      </c>
-      <c r="R35" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>321</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD35" s="1"/>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
-        <v>119</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="1">
-        <v>253</v>
-      </c>
-      <c r="F36" t="s">
-        <v>200</v>
-      </c>
-      <c r="H36" s="1">
-        <v>418</v>
-      </c>
-      <c r="I36" t="s">
-        <v>275</v>
-      </c>
-      <c r="N36" s="1">
-        <v>220</v>
-      </c>
-      <c r="O36" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>418</v>
-      </c>
-      <c r="R36" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>322</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD36" s="1"/>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
-        <v>120</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="1">
-        <v>254</v>
-      </c>
-      <c r="F37" t="s">
-        <v>201</v>
-      </c>
-      <c r="H37" s="1">
-        <v>419</v>
-      </c>
-      <c r="I37" t="s">
-        <v>276</v>
-      </c>
-      <c r="N37" s="1">
-        <v>221</v>
-      </c>
-      <c r="O37" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>419</v>
-      </c>
-      <c r="R37" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>323</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD37" s="1"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <v>121</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="1">
-        <v>255</v>
-      </c>
-      <c r="F38" t="s">
-        <v>202</v>
-      </c>
-      <c r="H38" s="1">
-        <v>502</v>
-      </c>
-      <c r="I38" t="s">
-        <v>306</v>
-      </c>
-      <c r="N38" s="1">
-        <v>222</v>
-      </c>
-      <c r="O38" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>324</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
-        <v>122</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="1">
-        <v>256</v>
-      </c>
-      <c r="F39" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" s="1">
-        <v>503</v>
-      </c>
-      <c r="I39" t="s">
-        <v>307</v>
-      </c>
-      <c r="N39" s="1">
-        <v>223</v>
-      </c>
-      <c r="O39" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>331</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>123</v>
-      </c>
-      <c r="C40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="1">
-        <v>257</v>
-      </c>
-      <c r="F40" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" s="1">
-        <v>504</v>
-      </c>
-      <c r="I40" t="s">
-        <v>308</v>
-      </c>
-      <c r="N40" s="1">
-        <v>224</v>
-      </c>
-      <c r="O40" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>347</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
-        <v>124</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="1">
-        <v>258</v>
-      </c>
-      <c r="F41" t="s">
-        <v>205</v>
-      </c>
-      <c r="N41" s="1">
-        <v>225</v>
-      </c>
-      <c r="O41" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>348</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
-        <v>125</v>
-      </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="1">
-        <v>259</v>
-      </c>
-      <c r="F42" t="s">
-        <v>206</v>
-      </c>
-      <c r="N42" s="1">
-        <v>226</v>
-      </c>
-      <c r="O42" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>349</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B43" s="1">
-        <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="1">
-        <v>260</v>
-      </c>
-      <c r="F43" t="s">
-        <v>207</v>
-      </c>
-      <c r="N43" s="1">
-        <v>227</v>
-      </c>
-      <c r="O43" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>350</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B44" s="1">
-        <v>127</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="1">
-        <v>261</v>
-      </c>
-      <c r="F44" t="s">
-        <v>208</v>
-      </c>
-      <c r="N44" s="1">
-        <v>228</v>
-      </c>
-      <c r="O44" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>351</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B45" s="1">
-        <v>128</v>
-      </c>
-      <c r="C45" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="1">
-        <v>111</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="N45" s="1">
-        <v>229</v>
-      </c>
-      <c r="O45" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z45" s="1">
-        <v>373</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B46" s="1">
-        <v>129</v>
-      </c>
-      <c r="C46" t="s">
-        <v>77</v>
-      </c>
-      <c r="N46" s="1">
-        <v>230</v>
-      </c>
-      <c r="O46" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z46" s="1">
-        <v>381</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B47" s="1">
-        <v>130</v>
-      </c>
-      <c r="C47" t="s">
-        <v>78</v>
-      </c>
-      <c r="N47" s="1">
-        <v>231</v>
-      </c>
-      <c r="O47" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>382</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B48" s="1">
-        <v>131</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N48" s="1">
-        <v>232</v>
-      </c>
-      <c r="O48" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>389</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B49" s="1">
-        <v>132</v>
-      </c>
-      <c r="C49" t="s">
-        <v>80</v>
-      </c>
-      <c r="N49" s="1">
-        <v>233</v>
-      </c>
-      <c r="O49" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z49" s="1">
-        <v>430</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B50" s="1">
-        <v>133</v>
-      </c>
-      <c r="C50" t="s">
-        <v>81</v>
-      </c>
-      <c r="N50" s="1">
-        <v>234</v>
-      </c>
-      <c r="O50" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>442</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B51" s="1">
-        <v>134</v>
-      </c>
-      <c r="C51" t="s">
-        <v>82</v>
-      </c>
-      <c r="N51" s="1">
-        <v>235</v>
-      </c>
-      <c r="O51" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>443</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B52" s="1">
-        <v>135</v>
-      </c>
-      <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="N52" s="1">
-        <v>505</v>
-      </c>
-      <c r="O52" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>456</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B53" s="1">
-        <v>136</v>
-      </c>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="N53" s="1">
-        <v>506</v>
-      </c>
-      <c r="O53" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z53" s="1">
-        <v>457</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B54" s="1">
-        <v>137</v>
-      </c>
-      <c r="C54" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>458</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B55" s="1">
-        <v>138</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z55" s="1">
-        <v>459</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B56" s="1">
-        <v>139</v>
-      </c>
-      <c r="C56" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>460</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B57" s="1">
-        <v>140</v>
-      </c>
-      <c r="C57" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z57" s="1">
-        <v>461</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B58" s="1">
-        <v>141</v>
-      </c>
-      <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z58" s="1">
-        <v>462</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B59" s="1">
-        <v>142</v>
-      </c>
-      <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z59" s="1">
-        <v>463</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B60" s="1">
-        <v>143</v>
-      </c>
-      <c r="C60" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z60" s="1">
-        <v>464</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B61" s="1">
-        <v>144</v>
-      </c>
-      <c r="C61" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z61" s="1">
-        <v>465</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B62" s="1">
-        <v>145</v>
-      </c>
-      <c r="C62" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z62" s="1">
-        <v>466</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B63" s="1">
-        <v>499</v>
-      </c>
-      <c r="C63" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>467</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B64" s="1">
-        <v>500</v>
-      </c>
-      <c r="C64" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>468</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B65" s="1">
-        <v>501</v>
-      </c>
-      <c r="C65" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z65" s="1">
-        <v>469</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B66" s="1">
-        <v>106</v>
-      </c>
-      <c r="C66" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z66" s="1">
-        <v>470</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B67" s="1">
-        <v>107</v>
-      </c>
-      <c r="C67" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z67" s="1">
-        <v>491</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B68" s="1">
-        <v>108</v>
-      </c>
-      <c r="C68" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z68" s="1">
-        <v>492</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B69" s="1">
-        <v>109</v>
-      </c>
-      <c r="C69" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z69" s="1">
-        <v>493</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B70" s="1">
-        <v>110</v>
-      </c>
-      <c r="C70" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z70" s="1">
-        <v>494</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B71" s="1">
-        <v>252</v>
-      </c>
-      <c r="C71" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z71" s="1">
-        <v>495</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B72" s="1">
-        <v>253</v>
-      </c>
-      <c r="C72" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z72" s="1">
-        <v>496</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B73" s="1">
-        <v>254</v>
-      </c>
-      <c r="C73" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z73" s="1">
-        <v>497</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B74" s="1">
-        <v>255</v>
-      </c>
-      <c r="C74" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z74" s="1">
-        <v>498</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B75" s="1">
-        <v>256</v>
-      </c>
-      <c r="C75" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z75" s="1">
-        <v>507</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B76" s="1">
-        <v>257</v>
-      </c>
-      <c r="C76" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z76" s="1">
-        <v>508</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B77" s="1">
-        <v>258</v>
-      </c>
-      <c r="C77" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z77" s="1">
-        <v>509</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B78" s="1">
-        <v>259</v>
-      </c>
-      <c r="C78" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z78" s="1">
-        <v>510</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B79" s="1">
-        <v>260</v>
-      </c>
-      <c r="C79" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z79" s="1">
-        <v>511</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B80" s="1">
-        <v>261</v>
-      </c>
-      <c r="C80" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z80" s="1">
-        <v>512</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B81" s="1">
-        <v>111</v>
-      </c>
-      <c r="C81" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z81" s="1">
-        <v>513</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z82" s="1">
-        <v>514</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z83" s="1">
-        <v>515</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z84" s="1">
-        <v>516</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z85" s="1">
-        <v>517</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z86" s="1">
-        <v>518</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z87" s="1">
-        <v>519</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z88" s="1">
-        <v>520</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z89" s="1">
-        <v>521</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z90" s="1">
-        <v>522</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z91" s="1">
-        <v>523</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z92" s="1">
-        <v>524</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z93" s="1">
-        <v>525</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z94" s="1">
-        <v>526</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z95" s="1">
-        <v>527</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="Z96" s="1">
-        <v>528</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="97" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z97" s="1">
-        <v>529</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="98" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z98" s="1">
-        <v>530</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="99" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z99" s="1">
-        <v>531</v>
-      </c>
-      <c r="AA99" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="100" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z100" s="1">
-        <v>532</v>
-      </c>
-      <c r="AA100" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="101" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z101" s="1">
-        <v>533</v>
-      </c>
-      <c r="AA101" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="102" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z102" s="1">
-        <v>534</v>
-      </c>
-      <c r="AA102" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="103" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z103" s="1">
-        <v>535</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="104" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z104" s="1">
-        <v>536</v>
-      </c>
-      <c r="AA104" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="105" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z105" s="1">
-        <v>537</v>
-      </c>
-      <c r="AA105" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="106" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z106" s="1">
-        <v>538</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="107" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z107" s="1">
-        <v>539</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="108" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z108" s="1">
-        <v>540</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="109" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z109" s="1">
-        <v>541</v>
-      </c>
-      <c r="AA109" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="110" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z110" s="1">
-        <v>542</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="111" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z111" s="1">
-        <v>543</v>
-      </c>
-      <c r="AA111" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="112" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z112" s="1">
-        <v>544</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="113" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z113" s="1">
-        <v>545</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="114" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z114" s="1">
-        <v>546</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="115" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z115" s="1">
-        <v>547</v>
-      </c>
-      <c r="AA115" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="116" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z116" s="1">
-        <v>548</v>
-      </c>
-      <c r="AA116" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="117" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z117" s="1">
-        <v>549</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="118" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z118" s="1">
-        <v>550</v>
-      </c>
-      <c r="AA118" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="119" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z119" s="1">
-        <v>551</v>
-      </c>
-      <c r="AA119" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="120" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z120" s="1">
-        <v>552</v>
-      </c>
-      <c r="AA120" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="121" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z121" s="1">
-        <v>553</v>
-      </c>
-      <c r="AA121" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="122" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z122" s="1">
-        <v>554</v>
-      </c>
-      <c r="AA122" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="123" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z123" s="1">
-        <v>555</v>
-      </c>
-      <c r="AA123" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="124" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z124" s="1">
-        <v>556</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="125" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z125" s="1">
-        <v>557</v>
-      </c>
-      <c r="AA125" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="126" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z126" s="1">
-        <v>558</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="127" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z127" s="1">
-        <v>559</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="128" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z128" s="1">
-        <v>560</v>
-      </c>
-      <c r="AA128" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="129" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z129" s="1">
-        <v>561</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="130" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z130" s="1">
-        <v>562</v>
-      </c>
-      <c r="AA130" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="131" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z131" s="1">
-        <v>563</v>
-      </c>
-      <c r="AA131" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="132" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z132" s="1">
-        <v>564</v>
-      </c>
-      <c r="AA132" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="133" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z133" s="1">
-        <v>565</v>
-      </c>
-      <c r="AA133" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="134" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z134" s="1">
-        <v>566</v>
-      </c>
-      <c r="AA134" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="135" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z135" s="1">
-        <v>567</v>
-      </c>
-      <c r="AA135" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="136" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z136" s="1">
-        <v>568</v>
-      </c>
-      <c r="AA136" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="137" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z137" s="1">
-        <v>569</v>
-      </c>
-      <c r="AA137" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="138" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z138" s="1">
-        <v>570</v>
-      </c>
-      <c r="AA138" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="139" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z139" s="1">
-        <v>571</v>
-      </c>
-      <c r="AA139" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="140" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z140" s="1">
-        <v>572</v>
-      </c>
-      <c r="AA140" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z141" s="1">
-        <v>573</v>
-      </c>
-      <c r="AA141" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="142" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z142" s="1">
-        <v>574</v>
-      </c>
-      <c r="AA142" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="143" spans="26:27" x14ac:dyDescent="0.3">
-      <c r="Z143" s="1">
-        <v>575</v>
-      </c>
-      <c r="AA143" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
